--- a/facultylist.xlsx
+++ b/facultylist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhip\Desktop\Leave_letter_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49392F0-9D6C-43CF-B8E8-BC6AB84BB25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D922B-6EB4-44B1-A571-9D28CDF5C4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>Associate professor &amp; Head</t>
   </si>
   <si>
-    <t xml:space="preserve">Electronics and Computer Engineering (ES) </t>
-  </si>
-  <si>
     <t>Electronics and Communication Engineering (ECE)</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Dr. Binoy Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics and Computer Engineering (ER) </t>
   </si>
 </sst>
 </file>
@@ -366,22 +366,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59:Y59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,35 +694,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="Y1" s="2"/>
@@ -2690,34 +2688,34 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8" t="s">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
       <c r="X55" s="2" t="s">
         <v>74</v>
       </c>
@@ -2727,34 +2725,34 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8" t="s">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="2" t="s">
         <v>74</v>
       </c>
@@ -2764,34 +2762,34 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
       <c r="X57" s="2" t="s">
         <v>74</v>
       </c>
@@ -2801,34 +2799,34 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
+      <c r="B58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
       <c r="X58" s="2" t="s">
         <v>74</v>
       </c>
@@ -2838,34 +2836,34 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
+      <c r="B59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
       <c r="X59" s="2" t="s">
         <v>74</v>
       </c>
@@ -2875,34 +2873,34 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8" t="s">
+      <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="2" t="s">
         <v>74</v>
       </c>
@@ -3667,20 +3665,324 @@
     </row>
   </sheetData>
   <mergeCells count="356">
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="N51:W51"/>
+    <mergeCell ref="N52:W52"/>
+    <mergeCell ref="N53:W53"/>
+    <mergeCell ref="N54:W54"/>
+    <mergeCell ref="N46:W46"/>
+    <mergeCell ref="N47:W47"/>
+    <mergeCell ref="N48:W48"/>
+    <mergeCell ref="N49:W49"/>
+    <mergeCell ref="N50:W50"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:W41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N42:W42"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="N44:W44"/>
+    <mergeCell ref="N45:W45"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="N34:W34"/>
+    <mergeCell ref="N35:W35"/>
+    <mergeCell ref="N36:W36"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="N39:W39"/>
+    <mergeCell ref="N40:W40"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="N37:W37"/>
+    <mergeCell ref="N38:W38"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="N30:W30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="N24:W24"/>
+    <mergeCell ref="N25:W25"/>
+    <mergeCell ref="N26:W26"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="N32:W32"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="I75:M75"/>
+    <mergeCell ref="I76:M76"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="I79:M79"/>
+    <mergeCell ref="I80:M80"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="I82:M82"/>
+    <mergeCell ref="I83:M83"/>
+    <mergeCell ref="I84:M84"/>
+    <mergeCell ref="I85:M85"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="I89:M89"/>
+    <mergeCell ref="N55:W55"/>
+    <mergeCell ref="N56:W56"/>
+    <mergeCell ref="N57:W57"/>
+    <mergeCell ref="N58:W58"/>
+    <mergeCell ref="N59:W59"/>
+    <mergeCell ref="N60:W60"/>
+    <mergeCell ref="N61:W61"/>
+    <mergeCell ref="N62:W62"/>
+    <mergeCell ref="N63:W63"/>
+    <mergeCell ref="N64:W64"/>
+    <mergeCell ref="N65:W65"/>
+    <mergeCell ref="N66:W66"/>
+    <mergeCell ref="N67:W67"/>
+    <mergeCell ref="N68:W68"/>
+    <mergeCell ref="N69:W69"/>
+    <mergeCell ref="N70:W70"/>
+    <mergeCell ref="N71:W71"/>
+    <mergeCell ref="N72:W72"/>
+    <mergeCell ref="N73:W73"/>
+    <mergeCell ref="N74:W74"/>
+    <mergeCell ref="N75:W75"/>
+    <mergeCell ref="N76:W76"/>
+    <mergeCell ref="N77:W77"/>
+    <mergeCell ref="N78:W78"/>
+    <mergeCell ref="N79:W79"/>
+    <mergeCell ref="N80:W80"/>
+    <mergeCell ref="N81:W81"/>
+    <mergeCell ref="N82:W82"/>
+    <mergeCell ref="N83:W83"/>
+    <mergeCell ref="N84:W84"/>
+    <mergeCell ref="N85:W85"/>
+    <mergeCell ref="N86:W86"/>
     <mergeCell ref="N87:W87"/>
     <mergeCell ref="N88:W88"/>
     <mergeCell ref="N89:W89"/>
@@ -3705,324 +4007,20 @@
     <mergeCell ref="X73:Y73"/>
     <mergeCell ref="X74:Y74"/>
     <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="N78:W78"/>
-    <mergeCell ref="N79:W79"/>
-    <mergeCell ref="N80:W80"/>
-    <mergeCell ref="N81:W81"/>
-    <mergeCell ref="N82:W82"/>
-    <mergeCell ref="N83:W83"/>
-    <mergeCell ref="N84:W84"/>
-    <mergeCell ref="N85:W85"/>
-    <mergeCell ref="N86:W86"/>
-    <mergeCell ref="I89:M89"/>
-    <mergeCell ref="N55:W55"/>
-    <mergeCell ref="N56:W56"/>
-    <mergeCell ref="N57:W57"/>
-    <mergeCell ref="N58:W58"/>
-    <mergeCell ref="N59:W59"/>
-    <mergeCell ref="N60:W60"/>
-    <mergeCell ref="N61:W61"/>
-    <mergeCell ref="N62:W62"/>
-    <mergeCell ref="N63:W63"/>
-    <mergeCell ref="N64:W64"/>
-    <mergeCell ref="N65:W65"/>
-    <mergeCell ref="N66:W66"/>
-    <mergeCell ref="N67:W67"/>
-    <mergeCell ref="N68:W68"/>
-    <mergeCell ref="N69:W69"/>
-    <mergeCell ref="N70:W70"/>
-    <mergeCell ref="N71:W71"/>
-    <mergeCell ref="N72:W72"/>
-    <mergeCell ref="N73:W73"/>
-    <mergeCell ref="N74:W74"/>
-    <mergeCell ref="N75:W75"/>
-    <mergeCell ref="N76:W76"/>
-    <mergeCell ref="N77:W77"/>
-    <mergeCell ref="I80:M80"/>
-    <mergeCell ref="I81:M81"/>
-    <mergeCell ref="I82:M82"/>
-    <mergeCell ref="I83:M83"/>
-    <mergeCell ref="I84:M84"/>
-    <mergeCell ref="I85:M85"/>
-    <mergeCell ref="I86:M86"/>
-    <mergeCell ref="I87:M87"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="I72:M72"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="I75:M75"/>
-    <mergeCell ref="I76:M76"/>
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="I79:M79"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="N31:W31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="N32:W32"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="N22:W22"/>
-    <mergeCell ref="N23:W23"/>
-    <mergeCell ref="N24:W24"/>
-    <mergeCell ref="N25:W25"/>
-    <mergeCell ref="N26:W26"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="N18:W18"/>
-    <mergeCell ref="N19:W19"/>
-    <mergeCell ref="N20:W20"/>
-    <mergeCell ref="N21:W21"/>
-    <mergeCell ref="N27:W27"/>
-    <mergeCell ref="N28:W28"/>
-    <mergeCell ref="N29:W29"/>
-    <mergeCell ref="N30:W30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="N10:W10"/>
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="N13:W13"/>
-    <mergeCell ref="N14:W14"/>
-    <mergeCell ref="N15:W15"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="N3:W3"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="N34:W34"/>
-    <mergeCell ref="N35:W35"/>
-    <mergeCell ref="N36:W36"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="N39:W39"/>
-    <mergeCell ref="N40:W40"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="N37:W37"/>
-    <mergeCell ref="N38:W38"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:W41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="N42:W42"/>
-    <mergeCell ref="N43:W43"/>
-    <mergeCell ref="N44:W44"/>
-    <mergeCell ref="N45:W45"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N51:W51"/>
-    <mergeCell ref="N52:W52"/>
-    <mergeCell ref="N53:W53"/>
-    <mergeCell ref="N54:W54"/>
-    <mergeCell ref="N46:W46"/>
-    <mergeCell ref="N47:W47"/>
-    <mergeCell ref="N48:W48"/>
-    <mergeCell ref="N49:W49"/>
-    <mergeCell ref="N50:W50"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
